--- a/01_ProjectPlanning/StoryPoints.xlsx
+++ b/01_ProjectPlanning/StoryPoints.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34178F91-92B7-4732-8D09-DB32BE4C88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF58F58-9927-4FEE-8B74-BBEA5C5581C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +99,18 @@
   </si>
   <si>
     <t>Red and green overlay over recorded tracks, …</t>
+  </si>
+  <si>
+    <t>Summe Story Points</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Offene SP</t>
+  </si>
+  <si>
+    <t>SP erst abziehen, wenn User Story beendet</t>
   </si>
 </sst>
 </file>
@@ -126,10 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +579,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F9)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01_ProjectPlanning/StoryPoints.xlsx
+++ b/01_ProjectPlanning/StoryPoints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF58F58-9927-4FEE-8B74-BBEA5C5581C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF18E4-1C66-467A-9742-B9FE9F508C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Effort (Story Points)</t>
   </si>
   <si>
-    <t>As a user I want to be able to install my device on my bike in order to be able to use it.</t>
-  </si>
-  <si>
     <t>Gummischnallen halten das Case.</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>Stabiles Case</t>
   </si>
   <si>
-    <t>As a user I want to easily connect the device with my smartphone in order to be able to use it.</t>
-  </si>
-  <si>
-    <t>Press button on device and connect it via Bluetooth.</t>
-  </si>
-  <si>
     <t>As a user I want to have a smartphone app that is easy to use in order not to be confused.</t>
   </si>
   <si>
@@ -111,6 +102,27 @@
   </si>
   <si>
     <t>SP erst abziehen, wenn User Story beendet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>As a user I want to add a ride and start tracking my GPS position in order to see the proper data.</t>
+  </si>
+  <si>
+    <t>Click on a button to see a stacked subview with data displayed. Start and Stop button which cause the data to start/stop being recorded.</t>
+  </si>
+  <si>
+    <t>As a user I want to see currently tracked ride on top of the list in the main view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As a user I want to see details of a ride (selected in main view)</t>
+  </si>
+  <si>
+    <t>Data to be saved and "verarbeitet"</t>
+  </si>
+  <si>
+    <t>As a user I want to see the history of different rides on a trail.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -472,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -486,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -500,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -514,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -528,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -542,10 +554,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -556,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -570,40 +582,67 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
         <f>SUM(F2:F9)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>33</v>
       </c>
     </row>

--- a/01_ProjectPlanning/StoryPoints.xlsx
+++ b/01_ProjectPlanning/StoryPoints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF18E4-1C66-467A-9742-B9FE9F508C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0686169C-7BC1-4C7C-9B4F-DD4CA4DE837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -53,15 +53,6 @@
     <t>Effort (Story Points)</t>
   </si>
   <si>
-    <t>Gummischnallen halten das Case.</t>
-  </si>
-  <si>
-    <t>As a user I want to have a case that protects the hardware inside in order not to break it.</t>
-  </si>
-  <si>
-    <t>Stabiles Case</t>
-  </si>
-  <si>
     <t>As a user I want to have a smartphone app that is easy to use in order not to be confused.</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>As a user I want to record the track in order to see it in the smartphone app later.</t>
   </si>
   <si>
-    <t>Data transmitted to the app via Bluetooth and displayed in the app</t>
-  </si>
-  <si>
     <t>As a user I want to have my descents listed in the app in order to have a good overview.</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
     <t>SP erst abziehen, wenn User Story beendet</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>As a user I want to add a ride and start tracking my GPS position in order to see the proper data.</t>
   </si>
   <si>
@@ -122,7 +107,13 @@
     <t>Data to be saved and "verarbeitet"</t>
   </si>
   <si>
-    <t>As a user I want to see the history of different rides on a trail.</t>
+    <t>Data displayed in the app</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -446,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +450,7 @@
     <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,50 +469,62 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -532,10 +535,13 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -546,10 +552,10 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -560,90 +566,122 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <f>SUM(F2:F9)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/01_ProjectPlanning/StoryPoints.xlsx
+++ b/01_ProjectPlanning/StoryPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0686169C-7BC1-4C7C-9B4F-DD4CA4DE837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC41BA52-508B-4EDB-8C8F-802A7A317D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -83,15 +83,6 @@
     <t>Summe Story Points</t>
   </si>
   <si>
-    <t>Woche</t>
-  </si>
-  <si>
-    <t>Offene SP</t>
-  </si>
-  <si>
-    <t>SP erst abziehen, wenn User Story beendet</t>
-  </si>
-  <si>
     <t>As a user I want to add a ride and start tracking my GPS position in order to see the proper data.</t>
   </si>
   <si>
@@ -113,7 +104,7 @@
     <t>Fertig</t>
   </si>
   <si>
-    <t>J</t>
+    <t>nicht fertig</t>
   </si>
 </sst>
 </file>
@@ -129,12 +120,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,13 +158,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +471,7 @@
     <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,138 +490,137 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
@@ -609,80 +629,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>F2+F3+F4+F5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <f>F14-F15</f>
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
